--- a/Statystyki_2018/Template/oopk.xlsx
+++ b/Statystyki_2018/Template/oopk.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t xml:space="preserve">lp</t>
   </si>
@@ -279,10 +279,6 @@
   <si>
     <t xml:space="preserve">pow.  
 6 do 12 m-cy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pow. 
-12 m-cy do 3 lat</t>
   </si>
   <si>
     <t xml:space="preserve">pow. 
@@ -587,7 +583,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -634,10 +630,6 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -717,18 +709,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:CA6"/>
+  <dimension ref="A2:AMJ6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AY1" activeCellId="0" sqref="AY1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="45.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="0" width="45.43"/>
   </cols>
   <sheetData>
     <row r="2" s="6" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -803,15 +795,15 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="BE2" s="2"/>
       <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="3" t="s">
+      <c r="BG2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3"/>
@@ -824,17 +816,17 @@
       <c r="BR2" s="3"/>
       <c r="BS2" s="3"/>
       <c r="BT2" s="3"/>
-      <c r="BU2" s="3"/>
-      <c r="BV2" s="2" t="s">
+      <c r="BU2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="BV2" s="2"/>
       <c r="BW2" s="2"/>
       <c r="BX2" s="2"/>
-      <c r="BY2" s="2"/>
-      <c r="BZ2" s="4" t="s">
+      <c r="BY2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="CA2" s="5"/>
+      <c r="BZ2" s="5"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
@@ -895,10 +887,10 @@
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
       <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="7" t="s">
+      <c r="BG3" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BH3" s="7"/>
       <c r="BI3" s="7"/>
       <c r="BJ3" s="7"/>
       <c r="BK3" s="7"/>
@@ -909,17 +901,17 @@
       <c r="BP3" s="7"/>
       <c r="BQ3" s="7"/>
       <c r="BR3" s="7"/>
-      <c r="BS3" s="7"/>
-      <c r="BT3" s="8" t="s">
+      <c r="BS3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="BU3" s="8"/>
+      <c r="BT3" s="8"/>
+      <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
       <c r="BW3" s="2"/>
       <c r="BX3" s="2"/>
-      <c r="BY3" s="2"/>
-      <c r="BZ3" s="4"/>
-      <c r="CA3" s="5"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="5"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="6" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -980,38 +972,38 @@
         <v>21</v>
       </c>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="12" t="s">
+      <c r="AA4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AB4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AC4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AD4" s="12" t="s">
+      <c r="AD4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AE4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AF4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AG4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AH4" s="12" t="s">
+      <c r="AH4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AI4" s="13" t="s">
+      <c r="AI4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AJ4" s="14" t="s">
+      <c r="AJ4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
       <c r="AM4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1039,46 +1031,46 @@
       <c r="AU4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="15" t="s">
+      <c r="AV4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AW4" s="15" t="s">
+      <c r="AW4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AX4" s="15" t="s">
+      <c r="AX4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AY4" s="15" t="s">
+      <c r="AY4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AZ4" s="15" t="s">
+      <c r="AZ4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="BA4" s="15" t="s">
+      <c r="BA4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="BB4" s="15" t="s">
+      <c r="BB4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="BC4" s="15" t="s">
+      <c r="BC4" s="14" t="s">
         <v>35</v>
       </c>
       <c r="BD4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="BE4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF4" s="13" t="s">
+      <c r="BF4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="BG4" s="13" t="s">
+      <c r="BG4" s="16" t="s">
         <v>38</v>
       </c>
       <c r="BH4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="BI4" s="18" t="s">
+      <c r="BI4" s="17" t="s">
         <v>40</v>
       </c>
       <c r="BJ4" s="18" t="s">
@@ -1087,34 +1079,32 @@
       <c r="BK4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="BL4" s="20" t="s">
+      <c r="BL4" s="19"/>
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="19"/>
+      <c r="BO4" s="19"/>
+      <c r="BP4" s="19"/>
+      <c r="BQ4" s="19"/>
+      <c r="BR4" s="19"/>
+      <c r="BS4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="BM4" s="20"/>
-      <c r="BN4" s="20"/>
-      <c r="BO4" s="20"/>
-      <c r="BP4" s="20"/>
-      <c r="BQ4" s="20"/>
-      <c r="BR4" s="20"/>
-      <c r="BS4" s="20"/>
-      <c r="BT4" s="18" t="s">
+      <c r="BT4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="BU4" s="18" t="s">
+      <c r="BU4" s="20" t="s">
         <v>45</v>
       </c>
       <c r="BV4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="BW4" s="22" t="s">
+      <c r="BW4" s="21"/>
+      <c r="BX4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="BX4" s="22"/>
-      <c r="BY4" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="BZ4" s="4"/>
-      <c r="CA4" s="5"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="5"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="6" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
@@ -1127,71 +1117,71 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="M5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="U5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="W5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="X5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="24" t="s">
+      <c r="AK5" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AK5" s="24" t="s">
+      <c r="AL5" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="AL5" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="AM5" s="9"/>
       <c r="AN5" s="9"/>
@@ -1202,42 +1192,42 @@
       <c r="AS5" s="9"/>
       <c r="AT5" s="9"/>
       <c r="AU5" s="9"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
-      <c r="AZ5" s="15"/>
-      <c r="BA5" s="15"/>
-      <c r="BB5" s="15"/>
-      <c r="BC5" s="15"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
       <c r="BD5" s="15"/>
-      <c r="BE5" s="16"/>
-      <c r="BF5" s="16"/>
+      <c r="BE5" s="15"/>
+      <c r="BF5" s="15"/>
       <c r="BG5" s="16"/>
       <c r="BH5" s="17"/>
-      <c r="BI5" s="18"/>
+      <c r="BI5" s="17"/>
       <c r="BJ5" s="18"/>
       <c r="BK5" s="19"/>
-      <c r="BL5" s="20"/>
-      <c r="BM5" s="20"/>
-      <c r="BN5" s="20"/>
-      <c r="BO5" s="20"/>
-      <c r="BP5" s="20"/>
-      <c r="BQ5" s="20"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="18"/>
-      <c r="BU5" s="18"/>
-      <c r="BV5" s="21"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
+      <c r="BO5" s="19"/>
+      <c r="BP5" s="19"/>
+      <c r="BQ5" s="19"/>
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="17"/>
+      <c r="BT5" s="17"/>
+      <c r="BU5" s="20"/>
+      <c r="BV5" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="BW5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="BX5" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="BY5" s="21"/>
-      <c r="BZ5" s="4"/>
-      <c r="CA5" s="5"/>
+      <c r="BX5" s="20"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="5"/>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="6" customFormat="true" ht="96" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -1250,34 +1240,34 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
       <c r="AM6" s="9"/>
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
@@ -1287,57 +1277,57 @@
       <c r="AS6" s="9"/>
       <c r="AT6" s="9"/>
       <c r="AU6" s="9"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
       <c r="BD6" s="15"/>
-      <c r="BE6" s="16"/>
-      <c r="BF6" s="16"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
       <c r="BG6" s="16"/>
       <c r="BH6" s="17"/>
-      <c r="BI6" s="18"/>
+      <c r="BI6" s="17"/>
       <c r="BJ6" s="18"/>
-      <c r="BK6" s="19"/>
-      <c r="BL6" s="27" t="s">
+      <c r="BK6" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="BL6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="BM6" s="27" t="s">
+      <c r="BM6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="BN6" s="27" t="s">
+      <c r="BN6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="BO6" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="BP6" s="27" t="s">
+      <c r="BP6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ6" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="BQ6" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="BR6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="BS6" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="BT6" s="18"/>
-      <c r="BU6" s="18"/>
-      <c r="BV6" s="21"/>
-      <c r="BW6" s="25"/>
-      <c r="BX6" s="25"/>
-      <c r="BY6" s="21"/>
-      <c r="BZ6" s="4"/>
-      <c r="CA6" s="5"/>
+      <c r="BR6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS6" s="17"/>
+      <c r="BT6" s="17"/>
+      <c r="BU6" s="20"/>
+      <c r="BV6" s="24"/>
+      <c r="BW6" s="24"/>
+      <c r="BX6" s="20"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="5"/>
+      <c r="AMJ6" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="91">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:J3"/>
@@ -1345,13 +1335,13 @@
     <mergeCell ref="AA2:AH3"/>
     <mergeCell ref="AI2:AL3"/>
     <mergeCell ref="AM2:AT3"/>
-    <mergeCell ref="AU2:BD3"/>
-    <mergeCell ref="BE2:BG3"/>
-    <mergeCell ref="BH2:BU2"/>
-    <mergeCell ref="BV2:BY3"/>
-    <mergeCell ref="BZ2:BZ6"/>
-    <mergeCell ref="BH3:BS3"/>
-    <mergeCell ref="BT3:BU3"/>
+    <mergeCell ref="AU2:BC3"/>
+    <mergeCell ref="BD2:BF3"/>
+    <mergeCell ref="BG2:BT2"/>
+    <mergeCell ref="BU2:BX3"/>
+    <mergeCell ref="BY2:BY6"/>
+    <mergeCell ref="BG3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
@@ -1402,13 +1392,12 @@
     <mergeCell ref="BH4:BH6"/>
     <mergeCell ref="BI4:BI6"/>
     <mergeCell ref="BJ4:BJ6"/>
-    <mergeCell ref="BK4:BK6"/>
-    <mergeCell ref="BL4:BS5"/>
+    <mergeCell ref="BK4:BR5"/>
+    <mergeCell ref="BS4:BS6"/>
     <mergeCell ref="BT4:BT6"/>
     <mergeCell ref="BU4:BU6"/>
-    <mergeCell ref="BV4:BV6"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BY4:BY6"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BX4:BX6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
@@ -1428,8 +1417,8 @@
     <mergeCell ref="AJ5:AJ6"/>
     <mergeCell ref="AK5:AK6"/>
     <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="BV5:BV6"/>
     <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BX5:BX6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
